--- a/LogInData.xlsx
+++ b/LogInData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -44,6 +44,30 @@
   </si>
   <si>
     <t xml:space="preserve">joedoe1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -55,7 +79,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,6 +119,19 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -140,11 +177,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -169,7 +210,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -296,80 +345,165 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>12341234</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="Nguyen102500@gmail.com"/>
     <hyperlink ref="A4" r:id="rId2" display="Nguyen102500@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId3" display="1@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
